--- a/Example_Omic_Data.xlsx
+++ b/Example_Omic_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Kaste\Desktop\Final PNAS Submission\GitHub Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Zoom Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D51EE7-0EEE-41B9-9BE0-75367059C3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C149E-10F7-4F5F-9C8B-DD219B5CB896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="4230" windowWidth="13035" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>rt</t>
   </si>
   <si>
-    <t>Gene00001</t>
-  </si>
-  <si>
-    <t>Gene00002</t>
-  </si>
-  <si>
-    <t>Gene00003</t>
+    <t>G00001</t>
+  </si>
+  <si>
+    <t>G00002</t>
+  </si>
+  <si>
+    <t>G00003</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
